--- a/TestData/Carrier.xlsx
+++ b/TestData/Carrier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Carrier Name;DOT #;MC #;Invite</t>
+  </si>
+  <si>
+    <t>Company Added Successfully</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,12 +153,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -163,6 +177,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +499,11 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +525,17 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -529,6 +556,9 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +575,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +631,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Carrier.xlsx
+++ b/TestData/Carrier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Carrier Details" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -91,24 +91,46 @@
   </si>
   <si>
     <t>Company Added Successfully</t>
+  </si>
+  <si>
+    <t>AddCarrier_InvalidDetails_001</t>
+  </si>
+  <si>
+    <t>Your search has failed</t>
+  </si>
+  <si>
+    <t>InviteCarrier_New_001</t>
+  </si>
+  <si>
+    <t>InviteCarrier_existing_002</t>
+  </si>
+  <si>
+    <t>InviteCarrier_existingEmail_003</t>
+  </si>
+  <si>
+    <t>Verifty_CarrierRequest__004</t>
+  </si>
+  <si>
+    <t>CancelInvite_Carrier__005</t>
+  </si>
+  <si>
+    <t>Last Created</t>
+  </si>
+  <si>
+    <t>ResendlInvite_Carrier__006</t>
+  </si>
+  <si>
+    <t>AcceptlInvite_Carrier__007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,24 +186,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -504,34 +543,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -554,33 +593,256 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
@@ -588,36 +850,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -628,15 +1002,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -648,34 +1020,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -698,7 +1070,7 @@
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -706,6 +1078,202 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
